--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CubeA-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CubeA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1169,7 +1169,7 @@
         <v>1.054633662475778</v>
       </c>
       <c r="D15">
-        <v>0.9096925873334167</v>
+        <v>0.9096925873334168</v>
       </c>
       <c r="E15">
         <v>1.014809039204192</v>
@@ -1181,7 +1181,7 @@
         <v>1.054633662475778</v>
       </c>
       <c r="H15">
-        <v>0.9096925873334167</v>
+        <v>0.9096925873334168</v>
       </c>
       <c r="I15">
         <v>1.029167065823824</v>
@@ -1202,10 +1202,60 @@
         <v>0.9622508132688044</v>
       </c>
       <c r="O15">
-        <v>0.9887980053438662</v>
+        <v>0.9887980053438663</v>
       </c>
       <c r="P15">
         <v>0.9896042583694986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.8620159336131725</v>
+      </c>
+      <c r="D16">
+        <v>1.1851820878893</v>
+      </c>
+      <c r="E16">
+        <v>0.9528535474453399</v>
+      </c>
+      <c r="F16">
+        <v>1.036449921668027</v>
+      </c>
+      <c r="G16">
+        <v>0.8620159336131725</v>
+      </c>
+      <c r="H16">
+        <v>1.1851820878893</v>
+      </c>
+      <c r="I16">
+        <v>0.9329395222185278</v>
+      </c>
+      <c r="J16">
+        <v>1.033450248940469</v>
+      </c>
+      <c r="K16">
+        <v>0.9489456796225956</v>
+      </c>
+      <c r="L16">
+        <v>1.11605938060394</v>
+      </c>
+      <c r="M16">
+        <v>0.8620159336131725</v>
+      </c>
+      <c r="N16">
+        <v>1.06901781766732</v>
+      </c>
+      <c r="O16">
+        <v>1.00912537265396</v>
+      </c>
+      <c r="P16">
+        <v>1.008487040250172</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.8620159336131725</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW30.xlsx
@@ -1172,7 +1172,7 @@
         <v>1.054633662475778</v>
       </c>
       <c r="D15">
-        <v>0.9096925873334168</v>
+        <v>0.9096925873334167</v>
       </c>
       <c r="E15">
         <v>1.014809039204192</v>
@@ -1184,7 +1184,7 @@
         <v>1.054633662475778</v>
       </c>
       <c r="H15">
-        <v>0.9096925873334168</v>
+        <v>0.9096925873334167</v>
       </c>
       <c r="I15">
         <v>1.029167065823824</v>
@@ -1205,7 +1205,7 @@
         <v>0.9622508132688044</v>
       </c>
       <c r="O15">
-        <v>0.9887980053438663</v>
+        <v>0.9887980053438662</v>
       </c>
       <c r="P15">
         <v>0.9896042583694986</v>

--- a/JupyterNotebooks/AveragedIntensites/CubeA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CubeA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6694800000000011</v>
+        <v>0.8620159336131725</v>
       </c>
       <c r="D10">
-        <v>1.510803999999997</v>
+        <v>1.1851820878893</v>
       </c>
       <c r="E10">
-        <v>0.8643160000000008</v>
+        <v>0.9528535474453399</v>
       </c>
       <c r="F10">
-        <v>1.112967999999999</v>
+        <v>1.036449921668027</v>
       </c>
       <c r="G10">
-        <v>0.6694800000000011</v>
+        <v>0.8620159336131725</v>
       </c>
       <c r="H10">
-        <v>1.510803999999997</v>
+        <v>1.1851820878893</v>
       </c>
       <c r="I10">
-        <v>0.8170079999999995</v>
+        <v>0.9329395222185278</v>
       </c>
       <c r="J10">
-        <v>1.084396</v>
+        <v>1.033450248940469</v>
       </c>
       <c r="K10">
-        <v>0.8780919999999999</v>
+        <v>0.9489456796225956</v>
       </c>
       <c r="L10">
-        <v>1.301987999999999</v>
+        <v>1.11605938060394</v>
       </c>
       <c r="M10">
-        <v>0.6694800000000011</v>
+        <v>0.8620159336131725</v>
       </c>
       <c r="N10">
-        <v>1.187559999999999</v>
+        <v>1.06901781766732</v>
       </c>
       <c r="O10">
-        <v>1.039391999999999</v>
+        <v>1.00912537265396</v>
       </c>
       <c r="P10">
-        <v>1.0298815</v>
+        <v>1.008487040250172</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.7955389212182482</v>
       </c>
       <c r="D11">
-        <v>1.830412500000001</v>
+        <v>1.268302539030818</v>
       </c>
       <c r="E11">
-        <v>0.76</v>
+        <v>0.9440334041316302</v>
       </c>
       <c r="F11">
-        <v>1.188487499999999</v>
+        <v>1.053479590065822</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.7955389212182482</v>
       </c>
       <c r="H11">
-        <v>1.830412500000001</v>
+        <v>1.268302539030818</v>
       </c>
       <c r="I11">
-        <v>0.7</v>
+        <v>0.9017252747761558</v>
       </c>
       <c r="J11">
-        <v>1.12</v>
+        <v>1.059363709310857</v>
       </c>
       <c r="K11">
-        <v>0.8187625000000001</v>
+        <v>0.9210012378633745</v>
       </c>
       <c r="L11">
-        <v>1.49</v>
+        <v>1.170050489518952</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>0.7955389212182482</v>
       </c>
       <c r="N11">
-        <v>1.29520625</v>
+        <v>1.106167971581224</v>
       </c>
       <c r="O11">
-        <v>1.069725</v>
+        <v>1.01533861361163</v>
       </c>
       <c r="P11">
-        <v>1.0509578125</v>
+        <v>1.014186895739482</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7089890035712006</v>
+        <v>0.7963266716619661</v>
       </c>
       <c r="D12">
-        <v>1.481975428608</v>
+        <v>1.266842653262206</v>
       </c>
       <c r="E12">
-        <v>0.8566873790464007</v>
+        <v>0.9444888236289528</v>
       </c>
       <c r="F12">
-        <v>1.105847914700799</v>
+        <v>1.053134455827418</v>
       </c>
       <c r="G12">
-        <v>0.7089890035712006</v>
+        <v>0.7963266716619661</v>
       </c>
       <c r="H12">
-        <v>1.481975428608</v>
+        <v>1.266842653262206</v>
       </c>
       <c r="I12">
-        <v>0.8239816525823993</v>
+        <v>0.9022533326309756</v>
       </c>
       <c r="J12">
-        <v>1.069126881484794</v>
+        <v>1.059198500077432</v>
       </c>
       <c r="K12">
-        <v>0.8915117553664049</v>
+        <v>0.9212553587219284</v>
       </c>
       <c r="L12">
-        <v>1.283221288755201</v>
+        <v>1.169164959788629</v>
       </c>
       <c r="M12">
-        <v>0.7089890035712006</v>
+        <v>0.7963266716619661</v>
       </c>
       <c r="N12">
-        <v>1.1693314038272</v>
+        <v>1.105665738445579</v>
       </c>
       <c r="O12">
-        <v>1.0383749314816</v>
+        <v>1.015198151095136</v>
       </c>
       <c r="P12">
-        <v>1.0276676630144</v>
+        <v>1.014083094449939</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9936995693683933</v>
+        <v>0.7957305428138802</v>
       </c>
       <c r="D13">
-        <v>0.9951408807131217</v>
+        <v>1.268034431053711</v>
       </c>
       <c r="E13">
-        <v>0.9966757790444358</v>
+        <v>0.9440929735483513</v>
       </c>
       <c r="F13">
-        <v>0.9965978855928875</v>
+        <v>1.053371803780082</v>
       </c>
       <c r="G13">
-        <v>0.9936995693683933</v>
+        <v>0.7957305428138802</v>
       </c>
       <c r="H13">
-        <v>0.9951408807131217</v>
+        <v>1.268034431053711</v>
       </c>
       <c r="I13">
-        <v>0.9964990863024565</v>
+        <v>0.9018274802579159</v>
       </c>
       <c r="J13">
-        <v>0.9946632626008348</v>
+        <v>1.059351485497782</v>
       </c>
       <c r="K13">
-        <v>0.9951164975163977</v>
+        <v>0.9210400306190084</v>
       </c>
       <c r="L13">
-        <v>0.9977131375521791</v>
+        <v>1.169911622423637</v>
       </c>
       <c r="M13">
-        <v>0.9936995693683933</v>
+        <v>0.7957305428138802</v>
       </c>
       <c r="N13">
-        <v>0.9959083298787788</v>
+        <v>1.106063702301031</v>
       </c>
       <c r="O13">
-        <v>0.9955285286797095</v>
+        <v>1.015307437799006</v>
       </c>
       <c r="P13">
-        <v>0.9957632623363383</v>
+        <v>1.014170046249296</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.013051849414023</v>
+        <v>0.6694800000000011</v>
       </c>
       <c r="D14">
-        <v>0.9683805076746137</v>
+        <v>1.510803999999997</v>
       </c>
       <c r="E14">
-        <v>1.001460038053012</v>
+        <v>0.8643160000000008</v>
       </c>
       <c r="F14">
-        <v>0.9913880389249421</v>
+        <v>1.112967999999999</v>
       </c>
       <c r="G14">
-        <v>1.013051849414023</v>
+        <v>0.6694800000000011</v>
       </c>
       <c r="H14">
-        <v>0.9683805076746137</v>
+        <v>1.510803999999997</v>
       </c>
       <c r="I14">
-        <v>1.007297022730692</v>
+        <v>0.8170079999999995</v>
       </c>
       <c r="J14">
-        <v>0.9879392069887653</v>
+        <v>1.084396</v>
       </c>
       <c r="K14">
-        <v>1.002788084881272</v>
+        <v>0.8780919999999999</v>
       </c>
       <c r="L14">
-        <v>0.9797339078626477</v>
+        <v>1.301987999999999</v>
       </c>
       <c r="M14">
-        <v>1.013051849414023</v>
+        <v>0.6694800000000011</v>
       </c>
       <c r="N14">
-        <v>0.9849202728638127</v>
+        <v>1.187559999999999</v>
       </c>
       <c r="O14">
-        <v>0.9935701085166477</v>
+        <v>1.039391999999999</v>
       </c>
       <c r="P14">
-        <v>0.994004832066246</v>
+        <v>1.0298815</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.054633662475778</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>0.9096925873334167</v>
+        <v>1.830412500000001</v>
       </c>
       <c r="E15">
-        <v>1.014809039204192</v>
+        <v>0.76</v>
       </c>
       <c r="F15">
-        <v>0.976056732362078</v>
+        <v>1.188487499999999</v>
       </c>
       <c r="G15">
-        <v>1.054633662475778</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0.9096925873334167</v>
+        <v>1.830412500000001</v>
       </c>
       <c r="I15">
-        <v>1.029167065823824</v>
+        <v>0.7</v>
       </c>
       <c r="J15">
-        <v>0.9787548631096405</v>
+        <v>1.12</v>
       </c>
       <c r="K15">
-        <v>1.015627061978553</v>
+        <v>0.8187625000000001</v>
       </c>
       <c r="L15">
-        <v>0.9380930546685059</v>
+        <v>1.49</v>
       </c>
       <c r="M15">
-        <v>1.054633662475778</v>
+        <v>0.5</v>
       </c>
       <c r="N15">
-        <v>0.9622508132688044</v>
+        <v>1.29520625</v>
       </c>
       <c r="O15">
-        <v>0.9887980053438662</v>
+        <v>1.069725</v>
       </c>
       <c r="P15">
-        <v>0.9896042583694986</v>
+        <v>1.0509578125</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8620159336131725</v>
+        <v>0.7089890035712006</v>
       </c>
       <c r="D16">
-        <v>1.1851820878893</v>
+        <v>1.481975428608</v>
       </c>
       <c r="E16">
-        <v>0.9528535474453399</v>
+        <v>0.8566873790464007</v>
       </c>
       <c r="F16">
-        <v>1.036449921668027</v>
+        <v>1.105847914700799</v>
       </c>
       <c r="G16">
-        <v>0.8620159336131725</v>
+        <v>0.7089890035712006</v>
       </c>
       <c r="H16">
-        <v>1.1851820878893</v>
+        <v>1.481975428608</v>
       </c>
       <c r="I16">
-        <v>0.9329395222185278</v>
+        <v>0.8239816525823993</v>
       </c>
       <c r="J16">
-        <v>1.033450248940469</v>
+        <v>1.069126881484794</v>
       </c>
       <c r="K16">
-        <v>0.9489456796225956</v>
+        <v>0.8915117553664049</v>
       </c>
       <c r="L16">
-        <v>1.11605938060394</v>
+        <v>1.283221288755201</v>
       </c>
       <c r="M16">
-        <v>0.8620159336131725</v>
+        <v>0.7089890035712006</v>
       </c>
       <c r="N16">
-        <v>1.06901781766732</v>
+        <v>1.1693314038272</v>
       </c>
       <c r="O16">
-        <v>1.00912537265396</v>
+        <v>1.0383749314816</v>
       </c>
       <c r="P16">
-        <v>1.008487040250172</v>
+        <v>1.0276676630144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9936995693683933</v>
+      </c>
+      <c r="D17">
+        <v>0.9951408807131217</v>
+      </c>
+      <c r="E17">
+        <v>0.9966757790444358</v>
+      </c>
+      <c r="F17">
+        <v>0.9965978855928875</v>
+      </c>
+      <c r="G17">
+        <v>0.9936995693683933</v>
+      </c>
+      <c r="H17">
+        <v>0.9951408807131217</v>
+      </c>
+      <c r="I17">
+        <v>0.9964990863024565</v>
+      </c>
+      <c r="J17">
+        <v>0.9946632626008348</v>
+      </c>
+      <c r="K17">
+        <v>0.9951164975163977</v>
+      </c>
+      <c r="L17">
+        <v>0.9977131375521791</v>
+      </c>
+      <c r="M17">
+        <v>0.9936995693683933</v>
+      </c>
+      <c r="N17">
+        <v>0.9959083298787788</v>
+      </c>
+      <c r="O17">
+        <v>0.9955285286797095</v>
+      </c>
+      <c r="P17">
+        <v>0.9957632623363383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.013051849414023</v>
+      </c>
+      <c r="D18">
+        <v>0.9683805076746137</v>
+      </c>
+      <c r="E18">
+        <v>1.001460038053012</v>
+      </c>
+      <c r="F18">
+        <v>0.9913880389249421</v>
+      </c>
+      <c r="G18">
+        <v>1.013051849414023</v>
+      </c>
+      <c r="H18">
+        <v>0.9683805076746137</v>
+      </c>
+      <c r="I18">
+        <v>1.007297022730692</v>
+      </c>
+      <c r="J18">
+        <v>0.9879392069887653</v>
+      </c>
+      <c r="K18">
+        <v>1.002788084881272</v>
+      </c>
+      <c r="L18">
+        <v>0.9797339078626477</v>
+      </c>
+      <c r="M18">
+        <v>1.013051849414023</v>
+      </c>
+      <c r="N18">
+        <v>0.9849202728638127</v>
+      </c>
+      <c r="O18">
+        <v>0.9935701085166477</v>
+      </c>
+      <c r="P18">
+        <v>0.994004832066246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1.054633662475778</v>
+      </c>
+      <c r="D19">
+        <v>0.9096925873334168</v>
+      </c>
+      <c r="E19">
+        <v>1.014809039204192</v>
+      </c>
+      <c r="F19">
+        <v>0.976056732362078</v>
+      </c>
+      <c r="G19">
+        <v>1.054633662475778</v>
+      </c>
+      <c r="H19">
+        <v>0.9096925873334168</v>
+      </c>
+      <c r="I19">
+        <v>1.029167065823824</v>
+      </c>
+      <c r="J19">
+        <v>0.9787548631096405</v>
+      </c>
+      <c r="K19">
+        <v>1.015627061978553</v>
+      </c>
+      <c r="L19">
+        <v>0.9380930546685059</v>
+      </c>
+      <c r="M19">
+        <v>1.054633662475778</v>
+      </c>
+      <c r="N19">
+        <v>0.9622508132688044</v>
+      </c>
+      <c r="O19">
+        <v>0.9887980053438663</v>
+      </c>
+      <c r="P19">
+        <v>0.9896042583694986</v>
       </c>
     </row>
   </sheetData>
